--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="8_{6C94B329-109A-4A19-AAEB-75839B7E4A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0269C56A-40D6-44E8-874A-45E7BB0E8DD8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -218,7 +218,7 @@
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,6 +1015,27 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1027,30 +1048,9 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1387,10 +1387,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1603,20 +1599,20 @@
       <selection activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.58203125" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" customWidth="1"/>
-    <col min="5" max="5" width="10.58203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" customWidth="1"/>
-    <col min="7" max="7" width="2.58203125" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="2.625" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.58203125" customWidth="1"/>
+    <col min="9" max="65" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.7">
+    <row r="1" spans="1:64" ht="90" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="92" t="s">
         <v>0</v>
@@ -1626,31 +1622,31 @@
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
       <c r="P1" s="18"/>
-      <c r="Q1" s="101">
+      <c r="Q1" s="98">
         <f ca="1">TODAY()</f>
-        <v>45961</v>
-      </c>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
-    </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+        <v>45963</v>
+      </c>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1">
       <c r="B2" s="90" t="s">
         <v>2</v>
       </c>
@@ -1658,30 +1654,30 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="16"/>
-      <c r="I2" s="102" t="s">
+      <c r="I2" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
       <c r="P2" s="18"/>
-      <c r="Q2" s="99">
+      <c r="Q2" s="97">
         <v>1</v>
       </c>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-    </row>
-    <row r="3" spans="1:64" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+    </row>
+    <row r="3" spans="1:64" s="20" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="19" t="s">
         <v>4</v>
@@ -1689,342 +1685,342 @@
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:64" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" s="20" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="I4" s="106">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
-        <v>45957</v>
-      </c>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104">
+        <v>45964</v>
+      </c>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93">
         <f ca="1">P5</f>
-        <v>45964</v>
-      </c>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104">
+        <v>45971</v>
+      </c>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93">
         <f ca="1">W5</f>
-        <v>45971</v>
-      </c>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104">
+        <v>45978</v>
+      </c>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93">
         <f ca="1">AD5</f>
-        <v>45978</v>
-      </c>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104">
+        <v>45985</v>
+      </c>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93">
         <f ca="1">AK5</f>
-        <v>45985</v>
-      </c>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104">
+        <v>45992</v>
+      </c>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="93">
         <f ca="1">AR5</f>
-        <v>45992</v>
-      </c>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104">
+        <v>45999</v>
+      </c>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="93">
         <f ca="1">AY5</f>
-        <v>45999</v>
-      </c>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104">
+        <v>46006</v>
+      </c>
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="93">
         <f ca="1">BF5</f>
-        <v>46006</v>
-      </c>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="105"/>
-    </row>
-    <row r="5" spans="1:64" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
-      <c r="B5" s="94" t="s">
+        <v>46013</v>
+      </c>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
+    </row>
+    <row r="5" spans="1:64" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="100"/>
+      <c r="B5" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="96" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="25">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45957</v>
+        <v>45964</v>
       </c>
       <c r="J5" s="25">
         <f ca="1">I5+1</f>
-        <v>45958</v>
+        <v>45965</v>
       </c>
       <c r="K5" s="25">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45959</v>
+        <v>45966</v>
       </c>
       <c r="L5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45960</v>
+        <v>45967</v>
       </c>
       <c r="M5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="N5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45962</v>
+        <v>45969</v>
       </c>
       <c r="O5" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45963</v>
+        <v>45970</v>
       </c>
       <c r="P5" s="27">
         <f ca="1">O5+1</f>
-        <v>45964</v>
+        <v>45971</v>
       </c>
       <c r="Q5" s="25">
         <f ca="1">P5+1</f>
-        <v>45965</v>
+        <v>45972</v>
       </c>
       <c r="R5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45966</v>
+        <v>45973</v>
       </c>
       <c r="S5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="T5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45968</v>
+        <v>45975</v>
       </c>
       <c r="U5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45969</v>
+        <v>45976</v>
       </c>
       <c r="V5" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45970</v>
+        <v>45977</v>
       </c>
       <c r="W5" s="27">
         <f ca="1">V5+1</f>
-        <v>45971</v>
+        <v>45978</v>
       </c>
       <c r="X5" s="25">
         <f ca="1">W5+1</f>
-        <v>45972</v>
+        <v>45979</v>
       </c>
       <c r="Y5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45973</v>
+        <v>45980</v>
       </c>
       <c r="Z5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="AA5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45975</v>
+        <v>45982</v>
       </c>
       <c r="AB5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="AC5" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="AD5" s="27">
         <f ca="1">AC5+1</f>
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="AE5" s="25">
         <f ca="1">AD5+1</f>
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="AF5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="AG5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="AH5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="AI5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45983</v>
+        <v>45990</v>
       </c>
       <c r="AJ5" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45984</v>
+        <v>45991</v>
       </c>
       <c r="AK5" s="27">
         <f ca="1">AJ5+1</f>
-        <v>45985</v>
+        <v>45992</v>
       </c>
       <c r="AL5" s="25">
         <f ca="1">AK5+1</f>
-        <v>45986</v>
+        <v>45993</v>
       </c>
       <c r="AM5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45987</v>
+        <v>45994</v>
       </c>
       <c r="AN5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45988</v>
+        <v>45995</v>
       </c>
       <c r="AO5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45989</v>
+        <v>45996</v>
       </c>
       <c r="AP5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45990</v>
+        <v>45997</v>
       </c>
       <c r="AQ5" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45991</v>
+        <v>45998</v>
       </c>
       <c r="AR5" s="27">
         <f ca="1">AQ5+1</f>
-        <v>45992</v>
+        <v>45999</v>
       </c>
       <c r="AS5" s="25">
         <f ca="1">AR5+1</f>
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="AT5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45994</v>
+        <v>46001</v>
       </c>
       <c r="AU5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45995</v>
+        <v>46002</v>
       </c>
       <c r="AV5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45996</v>
+        <v>46003</v>
       </c>
       <c r="AW5" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>45997</v>
+        <v>46004</v>
       </c>
       <c r="AX5" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>45998</v>
+        <v>46005</v>
       </c>
       <c r="AY5" s="27">
         <f ca="1">AX5+1</f>
-        <v>45999</v>
+        <v>46006</v>
       </c>
       <c r="AZ5" s="25">
         <f ca="1">AY5+1</f>
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="BA5" s="25">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>46001</v>
+        <v>46008</v>
       </c>
       <c r="BB5" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>46002</v>
+        <v>46009</v>
       </c>
       <c r="BC5" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>46003</v>
+        <v>46010</v>
       </c>
       <c r="BD5" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>46004</v>
+        <v>46011</v>
       </c>
       <c r="BE5" s="26">
         <f t="shared" ca="1" si="1"/>
-        <v>46005</v>
+        <v>46012</v>
       </c>
       <c r="BF5" s="27">
         <f ca="1">BE5+1</f>
-        <v>46006</v>
+        <v>46013</v>
       </c>
       <c r="BG5" s="25">
         <f ca="1">BF5+1</f>
-        <v>46007</v>
+        <v>46014</v>
       </c>
       <c r="BH5" s="25">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="BI5" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>46009</v>
+        <v>46016</v>
       </c>
       <c r="BJ5" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>46010</v>
+        <v>46017</v>
       </c>
       <c r="BK5" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>46011</v>
+        <v>46018</v>
       </c>
       <c r="BL5" s="25">
         <f t="shared" ca="1" si="2"/>
-        <v>46012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="93"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
+        <v>46019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="100"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="I6" s="28" t="str">
         <f t="shared" ref="I6:AN6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -2250,7 +2246,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" s="20" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" s="20" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2260,7 +2256,7 @@
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="H7" s="20" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f ca="1">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I7" s="33"/>
@@ -2320,7 +2316,7 @@
       <c r="BK7" s="33"/>
       <c r="BL7" s="33"/>
     </row>
-    <row r="8" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="8"/>
       <c r="B8" s="34" t="s">
         <v>12</v>
@@ -2331,7 +2327,7 @@
       <c r="F8" s="38"/>
       <c r="G8" s="11"/>
       <c r="H8" s="5" t="str">
-        <f t="shared" ref="H8:H33" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H33" ca="1" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="39"/>
@@ -2391,7 +2387,7 @@
       <c r="BK8" s="39"/>
       <c r="BL8" s="39"/>
     </row>
-    <row r="9" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="8"/>
       <c r="B9" s="41" t="s">
         <v>13</v>
@@ -2408,7 +2404,7 @@
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>8</v>
       </c>
       <c r="I9" s="45"/>
@@ -2468,7 +2464,7 @@
       <c r="BK9" s="45"/>
       <c r="BL9" s="45"/>
     </row>
-    <row r="10" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="8"/>
       <c r="B10" s="46" t="s">
         <v>14</v>
@@ -2485,7 +2481,7 @@
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>8</v>
       </c>
       <c r="I10" s="45"/>
@@ -2545,7 +2541,7 @@
       <c r="BK10" s="45"/>
       <c r="BL10" s="45"/>
     </row>
-    <row r="11" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="7"/>
       <c r="B11" s="46" t="s">
         <v>15</v>
@@ -2556,7 +2552,7 @@
       <c r="F11" s="49"/>
       <c r="G11" s="11"/>
       <c r="H11" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I11" s="45"/>
@@ -2616,7 +2612,7 @@
       <c r="BK11" s="45"/>
       <c r="BL11" s="45"/>
     </row>
-    <row r="12" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="46" t="s">
         <v>16</v>
@@ -2635,7 +2631,7 @@
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>8</v>
       </c>
       <c r="I12" s="45"/>
@@ -2695,7 +2691,7 @@
       <c r="BK12" s="45"/>
       <c r="BL12" s="45"/>
     </row>
-    <row r="13" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="46" t="s">
         <v>18</v>
@@ -2706,7 +2702,7 @@
       <c r="F13" s="49"/>
       <c r="G13" s="11"/>
       <c r="H13" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I13" s="45"/>
@@ -2766,7 +2762,7 @@
       <c r="BK13" s="45"/>
       <c r="BL13" s="45"/>
     </row>
-    <row r="14" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="8"/>
       <c r="B14" s="51" t="s">
         <v>19</v>
@@ -2777,11 +2773,11 @@
       <c r="F14" s="55"/>
       <c r="G14" s="11"/>
       <c r="H14" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="8"/>
       <c r="B15" s="56" t="s">
         <v>20</v>
@@ -2800,7 +2796,7 @@
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>8</v>
       </c>
       <c r="I15" s="45"/>
@@ -2860,7 +2856,7 @@
       <c r="BK15" s="45"/>
       <c r="BL15" s="45"/>
     </row>
-    <row r="16" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="7"/>
       <c r="B16" s="56" t="s">
         <v>22</v>
@@ -2871,7 +2867,7 @@
       <c r="F16" s="59"/>
       <c r="G16" s="11"/>
       <c r="H16" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I16" s="45"/>
@@ -2931,7 +2927,7 @@
       <c r="BK16" s="45"/>
       <c r="BL16" s="45"/>
     </row>
-    <row r="17" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="7"/>
       <c r="B17" s="56" t="s">
         <v>23</v>
@@ -2950,7 +2946,7 @@
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-57057</v>
       </c>
       <c r="I17" s="45"/>
@@ -3010,7 +3006,7 @@
       <c r="BK17" s="45"/>
       <c r="BL17" s="45"/>
     </row>
-    <row r="18" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="7"/>
       <c r="B18" s="56" t="s">
         <v>25</v>
@@ -3021,7 +3017,7 @@
       <c r="F18" s="59"/>
       <c r="G18" s="11"/>
       <c r="H18" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I18" s="45"/>
@@ -3081,7 +3077,7 @@
       <c r="BK18" s="45"/>
       <c r="BL18" s="45"/>
     </row>
-    <row r="19" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="7"/>
       <c r="B19" s="56"/>
       <c r="C19" s="57"/>
@@ -3090,7 +3086,7 @@
       <c r="F19" s="59"/>
       <c r="G19" s="11"/>
       <c r="H19" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I19" s="45"/>
@@ -3150,7 +3146,7 @@
       <c r="BK19" s="45"/>
       <c r="BL19" s="45"/>
     </row>
-    <row r="20" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="7"/>
       <c r="B20" s="60" t="s">
         <v>26</v>
@@ -3161,7 +3157,7 @@
       <c r="F20" s="64"/>
       <c r="G20" s="11"/>
       <c r="H20" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I20" s="65"/>
@@ -3221,7 +3217,7 @@
       <c r="BK20" s="65"/>
       <c r="BL20" s="65"/>
     </row>
-    <row r="21" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="7"/>
       <c r="B21" s="66" t="s">
         <v>27</v>
@@ -3232,7 +3228,7 @@
       <c r="F21" s="69"/>
       <c r="G21" s="11"/>
       <c r="H21" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I21" s="45"/>
@@ -3292,7 +3288,7 @@
       <c r="BK21" s="45"/>
       <c r="BL21" s="45"/>
     </row>
-    <row r="22" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="7"/>
       <c r="B22" s="66" t="s">
         <v>28</v>
@@ -3303,7 +3299,7 @@
       <c r="F22" s="69"/>
       <c r="G22" s="11"/>
       <c r="H22" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I22" s="45"/>
@@ -3363,7 +3359,7 @@
       <c r="BK22" s="45"/>
       <c r="BL22" s="45"/>
     </row>
-    <row r="23" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="7"/>
       <c r="B23" s="66" t="s">
         <v>29</v>
@@ -3374,7 +3370,7 @@
       <c r="F23" s="69"/>
       <c r="G23" s="11"/>
       <c r="H23" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I23" s="45"/>
@@ -3434,7 +3430,7 @@
       <c r="BK23" s="45"/>
       <c r="BL23" s="45"/>
     </row>
-    <row r="24" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="7"/>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
@@ -3443,7 +3439,7 @@
       <c r="F24" s="69"/>
       <c r="G24" s="11"/>
       <c r="H24" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I24" s="45"/>
@@ -3503,7 +3499,7 @@
       <c r="BK24" s="45"/>
       <c r="BL24" s="45"/>
     </row>
-    <row r="25" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="7"/>
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
@@ -3512,7 +3508,7 @@
       <c r="F25" s="69"/>
       <c r="G25" s="11"/>
       <c r="H25" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I25" s="45"/>
@@ -3572,7 +3568,7 @@
       <c r="BK25" s="45"/>
       <c r="BL25" s="45"/>
     </row>
-    <row r="26" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="7"/>
       <c r="B26" s="70" t="s">
         <v>30</v>
@@ -3583,7 +3579,7 @@
       <c r="F26" s="74"/>
       <c r="G26" s="11"/>
       <c r="H26" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I26" s="75"/>
@@ -3643,7 +3639,7 @@
       <c r="BK26" s="75"/>
       <c r="BL26" s="75"/>
     </row>
-    <row r="27" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="7"/>
       <c r="B27" s="76"/>
       <c r="C27" s="77"/>
@@ -3652,7 +3648,7 @@
       <c r="F27" s="79"/>
       <c r="G27" s="11"/>
       <c r="H27" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I27" s="45"/>
@@ -3712,7 +3708,7 @@
       <c r="BK27" s="45"/>
       <c r="BL27" s="45"/>
     </row>
-    <row r="28" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="7"/>
       <c r="B28" s="76"/>
       <c r="C28" s="77"/>
@@ -3721,7 +3717,7 @@
       <c r="F28" s="79"/>
       <c r="G28" s="11"/>
       <c r="H28" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I28" s="45"/>
@@ -3781,7 +3777,7 @@
       <c r="BK28" s="45"/>
       <c r="BL28" s="45"/>
     </row>
-    <row r="29" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="7"/>
       <c r="B29" s="76"/>
       <c r="C29" s="77"/>
@@ -3790,7 +3786,7 @@
       <c r="F29" s="79"/>
       <c r="G29" s="11"/>
       <c r="H29" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I29" s="45"/>
@@ -3850,7 +3846,7 @@
       <c r="BK29" s="45"/>
       <c r="BL29" s="45"/>
     </row>
-    <row r="30" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="7"/>
       <c r="B30" s="76"/>
       <c r="C30" s="77"/>
@@ -3859,7 +3855,7 @@
       <c r="F30" s="79"/>
       <c r="G30" s="11"/>
       <c r="H30" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I30" s="45"/>
@@ -3919,7 +3915,7 @@
       <c r="BK30" s="45"/>
       <c r="BL30" s="45"/>
     </row>
-    <row r="31" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="7"/>
       <c r="B31" s="76"/>
       <c r="C31" s="77"/>
@@ -3928,7 +3924,7 @@
       <c r="F31" s="79"/>
       <c r="G31" s="11"/>
       <c r="H31" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I31" s="45"/>
@@ -3988,7 +3984,7 @@
       <c r="BK31" s="45"/>
       <c r="BL31" s="45"/>
     </row>
-    <row r="32" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A32" s="7"/>
       <c r="B32" s="80"/>
       <c r="C32" s="81"/>
@@ -3997,7 +3993,7 @@
       <c r="F32" s="83"/>
       <c r="G32" s="11"/>
       <c r="H32" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I32" s="39"/>
@@ -4057,7 +4053,7 @@
       <c r="BK32" s="39"/>
       <c r="BL32" s="39"/>
     </row>
-    <row r="33" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A33" s="8"/>
       <c r="B33" s="84" t="s">
         <v>31</v>
@@ -4068,7 +4064,7 @@
       <c r="F33" s="88"/>
       <c r="G33" s="11"/>
       <c r="H33" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="I33" s="89"/>
@@ -4128,18 +4124,28 @@
       <c r="BK33" s="89"/>
       <c r="BL33" s="89"/>
     </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" ht="30" customHeight="1">
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" ht="30" customHeight="1">
       <c r="C35" s="10"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" ht="30" customHeight="1">
       <c r="C36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4148,16 +4154,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="23">
@@ -4269,9 +4265,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="41" t="s">
         <v>13</v>
       </c>
@@ -4288,7 +4284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -4302,7 +4298,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -4310,12 +4306,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="56" t="s">
         <v>20</v>
       </c>
@@ -4329,7 +4325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -4343,7 +4339,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -4357,7 +4353,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="C9" t="s">
         <v>47</v>
       </c>
@@ -4365,7 +4361,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="66" t="s">
         <v>27</v>
       </c>
@@ -4376,7 +4372,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4384,7 +4380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -4392,22 +4388,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -4418,12 +4414,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4739,64 +4746,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09426A3-87E9-4865-8A6C-3456B026AE03}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09426A3-87E9-4865-8A6C-3456B026AE03}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
